--- a/PastaDocumetos/Orcamento.xlsx
+++ b/PastaDocumetos/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\ExercicioGIT\3SPF-ExempoGIT-2024\PastaDocumetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C27029-6E22-4D6D-93A8-BA8D84D99787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DD70A4-49BE-4845-811D-580736F63ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,19 +93,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,301 +522,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:P20"/>
+  <dimension ref="C2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
